--- a/bank statement generator/bank_statements/statement_80.xlsx
+++ b/bank statement generator/bank_statements/statement_80.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 15.05.2024</t>
+          <t>KONTOSTAND AM 09.04.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,88 +759,88 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>17.05.</t>
+          <t>10.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>18.05.</t>
+          <t>11.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./17.05 EDEKA RO</t>
+          <t>RECHNUNG VODAFONE GMBH 34598657</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>23,70-</t>
+          <t>41,80-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>20.05.</t>
+          <t>12.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>21.05.</t>
+          <t>13.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 99408798</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>85,33-</t>
+          <t>24,73-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>24.05.</t>
+          <t>14.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>25.05.</t>
+          <t>15.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 12913608</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>23,62-</t>
+          <t>86,58-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>25.05.</t>
+          <t>15.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>26.05.</t>
+          <t>16.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 19247829</t>
+          <t>ZALANDO MKTPLC EU PBOHJY</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>38,86-</t>
+          <t>41,04-</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 29.05.2024</t>
+          <t>KONTOSTAND AM 19.04.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>171,51-</t>
+          <t>194,15-</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 06.06.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 27.04.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
